--- a/77giftlist.xlsx
+++ b/77giftlist.xlsx
@@ -1,43 +1,437 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView windowWidth="30720" windowHeight="13740"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="包包" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+  <si>
+    <t>品牌</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>是否代购</t>
+  </si>
+  <si>
+    <t>金额</t>
+  </si>
+  <si>
+    <t>想要指数（1-5）</t>
+  </si>
+  <si>
+    <t>是否一直想要</t>
+  </si>
+  <si>
+    <t>最终截止时间</t>
+  </si>
+  <si>
+    <t>gucci</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>1w</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -45,24 +439,349 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -111,7 +830,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -146,7 +865,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -320,23 +1039,83 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="3" max="3" width="11.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="16.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="18.1111111111111" customWidth="1"/>
+    <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.55" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="14.55" spans="1:7">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4">
+        <f>DATE(2018,12,1)</f>
+        <v>43435</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
+      <formula1>"5,4,3,2,1"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/77giftlist.xlsx
+++ b/77giftlist.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13740"/>
+    <workbookView windowWidth="28245" windowHeight="12465"/>
   </bookViews>
   <sheets>
-    <sheet name="包包" sheetId="1" r:id="rId1"/>
+    <sheet name="礼物" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
     <t>品牌</t>
   </si>
@@ -37,19 +37,22 @@
     <t>最终截止时间</t>
   </si>
   <si>
+    <t>购买地址</t>
+  </si>
+  <si>
     <t>gucci</t>
   </si>
   <si>
-    <t>xxx</t>
+    <t>腰带</t>
   </si>
   <si>
     <t>否</t>
   </si>
   <si>
-    <t>1w</t>
-  </si>
-  <si>
     <t>是</t>
+  </si>
+  <si>
+    <t>https://www.gucci.cn/zh/pr/409417AP00T1000?nid=41&amp;listName=ProductGrid&amp;position=18&amp;categoryPath=</t>
   </si>
 </sst>
 </file>
@@ -57,13 +60,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +83,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -94,47 +105,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -146,27 +129,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -177,8 +151,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,40 +182,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,13 +242,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,169 +422,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,17 +471,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,19 +494,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,15 +530,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -558,174 +545,200 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1045,65 +1058,75 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="3" max="3" width="11.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="16.5555555555556" customWidth="1"/>
-    <col min="6" max="6" width="18.1111111111111" customWidth="1"/>
-    <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
+    <col min="1" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="11.8916666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="16.5583333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="89.75" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.55" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" ht="21" customHeight="1" spans="1:8">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" ht="14.55" spans="1:7">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" ht="15" spans="1:8">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2">
+      <c r="D2" s="2">
+        <v>3150</v>
+      </c>
+      <c r="E2" s="2">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="4">
-        <f>DATE(2018,12,1)</f>
-        <v>43435</v>
+      <c r="G2" s="6">
+        <f>DATE(2019,3,3)</f>
+        <v>43527</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1115,6 +1138,9 @@
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" display="https://www.gucci.cn/zh/pr/409417AP00T1000?nid=41&amp;listName=ProductGrid&amp;position=18&amp;categoryPath="/>
+  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/77giftlist.xlsx
+++ b/77giftlist.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>品牌</t>
   </si>
   <si>
+    <t>类别</t>
+  </si>
+  <si>
     <t>名称</t>
   </si>
   <si>
@@ -40,12 +43,15 @@
     <t>购买地址</t>
   </si>
   <si>
-    <t>gucci</t>
+    <t>Gucci</t>
   </si>
   <si>
     <t>腰带</t>
   </si>
   <si>
+    <t>双G带扣2CM黑色75</t>
+  </si>
+  <si>
     <t>否</t>
   </si>
   <si>
@@ -53,6 +59,30 @@
   </si>
   <si>
     <t>https://www.gucci.cn/zh/pr/409417AP00T1000?nid=41&amp;listName=ProductGrid&amp;position=18&amp;categoryPath=</t>
+  </si>
+  <si>
+    <t>Chanel</t>
+  </si>
+  <si>
+    <t>包包</t>
+  </si>
+  <si>
+    <t>Leboy金链牛皮黑色</t>
+  </si>
+  <si>
+    <t>3W+</t>
+  </si>
+  <si>
+    <t>奥迪</t>
+  </si>
+  <si>
+    <t>车</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>30W</t>
   </si>
 </sst>
 </file>
@@ -60,11 +90,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -98,6 +128,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -106,8 +144,58 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,8 +217,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,89 +256,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -242,25 +272,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,19 +422,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,55 +434,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,73 +452,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,13 +501,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,10 +558,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -514,70 +598,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -586,16 +616,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -607,116 +637,116 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -727,6 +757,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -734,10 +767,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1058,88 +1091,149 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="11.8916666666667" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="16.5583333333333" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="89.75" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="3" max="3" width="20.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.8916666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2"/>
+    <col min="6" max="6" width="16.5583333333333" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="89.75" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="21" customHeight="1" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="21" customHeight="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" ht="15" spans="1:8">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" s="1" customFormat="1" ht="15" spans="1:9">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2">
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1">
         <v>3150</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="1">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="6">
-        <f>DATE(2019,3,3)</f>
-        <v>43527</v>
-      </c>
-      <c r="H2" s="7" t="s">
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="7">
+        <f>DATE(2019,12,30)</f>
+        <v>43829</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="7">
+        <f>DATE(2021,12,30)</f>
+        <v>44560</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <f>DATE(2019,10,30)</f>
+        <v>43768</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
       <formula1>"5,4,3,2,1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" display="https://www.gucci.cn/zh/pr/409417AP00T1000?nid=41&amp;listName=ProductGrid&amp;position=18&amp;categoryPath="/>
+    <hyperlink ref="I2" r:id="rId1" display="https://www.gucci.cn/zh/pr/409417AP00T1000?nid=41&amp;listName=ProductGrid&amp;position=18&amp;categoryPath="/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/77giftlist.xlsx
+++ b/77giftlist.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>品牌</t>
   </si>
@@ -83,6 +83,24 @@
   </si>
   <si>
     <t>30W</t>
+  </si>
+  <si>
+    <t>LV</t>
+  </si>
+  <si>
+    <t>束发带</t>
+  </si>
+  <si>
+    <t>示例图</t>
+  </si>
+  <si>
+    <t>倩碧</t>
+  </si>
+  <si>
+    <t>腮红</t>
+  </si>
+  <si>
+    <t>小菊花07号色</t>
   </si>
 </sst>
 </file>
@@ -90,9 +108,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
@@ -121,6 +139,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -130,6 +171,28 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -140,6 +203,30 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -152,21 +239,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,81 +268,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -272,13 +290,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,19 +428,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,145 +464,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,6 +519,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -516,35 +549,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,6 +580,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,26 +610,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,10 +622,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -616,16 +634,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -634,115 +652,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -757,9 +775,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -771,6 +786,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -831,6 +849,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>489585</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2463165</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="8edfe67c675af09364e390fbd814dcc"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8677275" y="819150"/>
+          <a:ext cx="1973580" cy="2266950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1091,13 +1152,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="20.625" style="2" customWidth="1"/>
@@ -1114,28 +1175,28 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1161,11 +1222,11 @@
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <f>DATE(2019,12,30)</f>
         <v>43829</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1191,7 +1252,7 @@
       <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <f>DATE(2021,12,30)</f>
         <v>44560</v>
       </c>
@@ -1218,9 +1279,63 @@
       <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <f>DATE(2019,10,30)</f>
         <v>43768</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1450</v>
+      </c>
+      <c r="F5" s="2">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="6">
+        <f>DATE(2019,8,30)</f>
+        <v>43707</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2">
+        <v>130</v>
+      </c>
+      <c r="F6" s="2">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="6">
+        <f>DATE(2020,1,30)</f>
+        <v>43860</v>
       </c>
     </row>
   </sheetData>
@@ -1233,9 +1348,10 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" display="https://www.gucci.cn/zh/pr/409417AP00T1000?nid=41&amp;listName=ProductGrid&amp;position=18&amp;categoryPath="/>
+    <hyperlink ref="I2" r:id="rId2" display="https://www.gucci.cn/zh/pr/409417AP00T1000?nid=41&amp;listName=ProductGrid&amp;position=18&amp;categoryPath="/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>